--- a/Modello/nuovi modelli/Input-Output-1.xlsx
+++ b/Modello/nuovi modelli/Input-Output-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Test-1" sheetId="3" r:id="rId1"/>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>EANS</t>
-  </si>
-  <si>
-    <t>ENAIRE</t>
   </si>
   <si>
     <t>ENAV</t>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>k</t>
+  </si>
+  <si>
+    <t>ENAIRE</t>
   </si>
 </sst>
 </file>
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AL5" sqref="B4:AL5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -739,76 +739,76 @@
         <v>14</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -929,7 +929,7 @@
     </row>
     <row r="3" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="4">
         <v>70</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="4" spans="1:38" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="6">
         <v>201983</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="5" spans="1:38" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="6">
         <v>48742</v>
@@ -1285,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1302,7 +1302,8 @@
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" customWidth="1"/>
+    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="7" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.5546875" bestFit="1" customWidth="1"/>
@@ -2585,7 +2586,7 @@
     <col min="16166" max="16166" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2629,76 +2630,76 @@
         <v>14</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -2819,7 +2820,7 @@
     </row>
     <row r="3" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="4">
         <v>70</v>
@@ -2935,7 +2936,7 @@
     </row>
     <row r="4" spans="1:38" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="6">
         <v>201983</v>
@@ -3051,7 +3052,7 @@
     </row>
     <row r="5" spans="1:38" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="6">
         <v>48742</v>
@@ -3167,16 +3168,16 @@
     </row>
     <row r="6" spans="1:38" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="6">
-        <v>0</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C6" s="6">
         <v>4</v>
       </c>
       <c r="D6" s="6">
-        <v>0</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E6" s="6">
         <v>71</v>
@@ -3224,13 +3225,13 @@
         <v>19</v>
       </c>
       <c r="T6" s="6">
-        <v>0</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="U6" s="6">
         <v>12</v>
       </c>
       <c r="V6" s="6">
-        <v>0</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="W6" s="6">
         <v>35</v>
@@ -3239,13 +3240,13 @@
         <v>53</v>
       </c>
       <c r="Y6" s="6">
-        <v>0</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="Z6" s="6">
         <v>2</v>
       </c>
       <c r="AA6" s="6">
-        <v>0</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="AB6" s="6">
         <v>585</v>
@@ -3260,7 +3261,7 @@
         <v>1</v>
       </c>
       <c r="AF6" s="6">
-        <v>0</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="AG6" s="6">
         <v>128</v>
@@ -3272,13 +3273,13 @@
         <v>108</v>
       </c>
       <c r="AJ6" s="6">
-        <v>0</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="AK6" s="6">
         <v>15</v>
       </c>
       <c r="AL6" s="6">
-        <v>0</v>
+        <v>9.9999999999999995E-8</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
@@ -3295,7 +3296,7 @@
   <dimension ref="A1:AL10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B4" sqref="B4:AL4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4626,76 +4627,76 @@
         <v>14</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4816,7 +4817,7 @@
     </row>
     <row r="3" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="4">
         <v>70</v>
@@ -4932,16 +4933,16 @@
     </row>
     <row r="4" spans="1:38" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="6">
-        <v>0</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C4" s="6">
         <v>4</v>
       </c>
       <c r="D4" s="6">
-        <v>0</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E4" s="6">
         <v>71</v>
@@ -4989,13 +4990,13 @@
         <v>19</v>
       </c>
       <c r="T4" s="6">
-        <v>0</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="U4" s="6">
         <v>12</v>
       </c>
       <c r="V4" s="6">
-        <v>0</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="W4" s="6">
         <v>35</v>
@@ -5004,13 +5005,13 @@
         <v>53</v>
       </c>
       <c r="Y4" s="6">
-        <v>0</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="Z4" s="6">
         <v>2</v>
       </c>
       <c r="AA4" s="6">
-        <v>0</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="AB4" s="6">
         <v>585</v>
@@ -5025,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="AF4" s="6">
-        <v>0</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="AG4" s="6">
         <v>128</v>
@@ -5037,18 +5038,18 @@
         <v>108</v>
       </c>
       <c r="AJ4" s="6">
-        <v>0</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="AK4" s="6">
         <v>15</v>
       </c>
       <c r="AL4" s="6">
-        <v>0</v>
+        <v>9.9999999999999995E-8</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="6">
         <v>201983</v>
@@ -5164,118 +5165,118 @@
     </row>
     <row r="6" spans="1:38" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="6">
-        <v>46627</v>
+        <v>48742</v>
       </c>
       <c r="C6" s="6">
-        <v>263155</v>
+        <v>275568</v>
       </c>
       <c r="D6" s="6">
-        <v>18939</v>
+        <v>16214</v>
       </c>
       <c r="E6" s="6">
-        <v>366680</v>
+        <v>369833</v>
       </c>
       <c r="F6" s="6">
-        <v>562617</v>
+        <v>548497</v>
       </c>
       <c r="G6" s="6">
-        <v>205396</v>
+        <v>214760</v>
       </c>
       <c r="H6" s="6">
-        <v>239577</v>
+        <v>270277</v>
       </c>
       <c r="I6" s="6">
-        <v>228444</v>
+        <v>232312</v>
       </c>
       <c r="J6" s="6">
-        <v>162044</v>
+        <v>168708</v>
       </c>
       <c r="K6" s="6">
-        <v>1881337</v>
+        <v>1898328</v>
       </c>
       <c r="L6" s="6">
-        <v>1508424</v>
+        <v>1605962</v>
       </c>
       <c r="M6" s="6">
-        <v>2639898</v>
+        <v>2678824</v>
       </c>
       <c r="N6" s="6">
-        <v>74861</v>
+        <v>77796</v>
       </c>
       <c r="O6" s="6">
-        <v>1609082</v>
+        <v>1640648</v>
       </c>
       <c r="P6" s="6">
-        <v>1329980</v>
+        <v>1330020</v>
       </c>
       <c r="Q6" s="6">
-        <v>170939</v>
+        <v>166297</v>
       </c>
       <c r="R6" s="6">
-        <v>583639</v>
+        <v>608512</v>
       </c>
       <c r="S6" s="6">
-        <v>237116</v>
+        <v>256884</v>
       </c>
       <c r="T6" s="6">
-        <v>336801</v>
+        <v>351654</v>
       </c>
       <c r="U6" s="6">
-        <v>549703</v>
+        <v>547005</v>
       </c>
       <c r="V6" s="6">
-        <v>92886</v>
+        <v>95222</v>
       </c>
       <c r="W6" s="6">
-        <v>99652</v>
+        <v>101299</v>
       </c>
       <c r="X6" s="6">
-        <v>285969</v>
+        <v>293545</v>
       </c>
       <c r="Y6" s="6">
-        <v>77899</v>
+        <v>88034</v>
       </c>
       <c r="Z6" s="6">
-        <v>27956</v>
+        <v>29607</v>
       </c>
       <c r="AA6" s="6">
-        <v>18273</v>
+        <v>16616</v>
       </c>
       <c r="AB6" s="6">
-        <v>587342</v>
+        <v>600970</v>
       </c>
       <c r="AC6" s="6">
-        <v>1781191</v>
+        <v>1815361</v>
       </c>
       <c r="AD6" s="6">
-        <v>399808</v>
+        <v>417267</v>
       </c>
       <c r="AE6" s="6">
-        <v>298402</v>
+        <v>304059</v>
       </c>
       <c r="AF6" s="6">
-        <v>66194</v>
+        <v>67516</v>
       </c>
       <c r="AG6" s="6">
-        <v>493168</v>
+        <v>490783</v>
       </c>
       <c r="AH6" s="6">
-        <v>365642</v>
+        <v>384420</v>
       </c>
       <c r="AI6" s="6">
-        <v>450868</v>
+        <v>454594</v>
       </c>
       <c r="AJ6" s="6">
-        <v>57152</v>
+        <v>58165</v>
       </c>
       <c r="AK6" s="6">
-        <v>229245</v>
+        <v>247005</v>
       </c>
       <c r="AL6" s="6">
-        <v>291335</v>
+        <v>186111</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
@@ -5290,8 +5291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL10"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AL10" sqref="A10:AL10"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:AL10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6622,76 +6623,76 @@
         <v>14</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -6699,228 +6700,228 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>18410</v>
+        <v>22488</v>
       </c>
       <c r="C2" s="4">
-        <v>92051</v>
+        <v>111291</v>
       </c>
       <c r="D2" s="4">
-        <v>4480</v>
+        <v>8873</v>
       </c>
       <c r="E2" s="4">
-        <v>150346</v>
+        <v>185762</v>
       </c>
       <c r="F2" s="4">
-        <v>94434</v>
+        <v>190529</v>
       </c>
       <c r="G2" s="4">
-        <v>98393</v>
+        <v>142114</v>
       </c>
       <c r="H2" s="4">
-        <v>69781</v>
+        <v>87713</v>
       </c>
       <c r="I2" s="4">
-        <v>76524</v>
+        <v>89648</v>
       </c>
       <c r="J2" s="4">
-        <v>34084</v>
+        <v>40989</v>
       </c>
       <c r="K2" s="4">
-        <v>829697</v>
+        <v>1043916</v>
       </c>
       <c r="L2" s="4">
-        <v>287980</v>
+        <v>430367</v>
       </c>
       <c r="M2" s="4">
-        <v>958920</v>
+        <v>1244896</v>
       </c>
       <c r="N2" s="4">
-        <v>14197</v>
+        <v>16477</v>
       </c>
       <c r="O2" s="4">
-        <v>604266</v>
+        <v>755500</v>
       </c>
       <c r="P2" s="4">
-        <v>556266</v>
+        <v>686571</v>
       </c>
       <c r="Q2" s="4">
-        <v>38230</v>
+        <v>64286</v>
       </c>
       <c r="R2" s="4">
-        <v>127715</v>
+        <v>152884</v>
       </c>
       <c r="S2" s="4">
-        <v>74539</v>
+        <v>93523</v>
       </c>
       <c r="T2" s="4">
-        <v>88518</v>
+        <v>109654</v>
       </c>
       <c r="U2" s="4">
-        <v>165810</v>
+        <v>183408</v>
       </c>
       <c r="V2" s="4">
-        <v>17271</v>
+        <v>22678</v>
       </c>
       <c r="W2" s="4">
-        <v>53196</v>
+        <v>58023</v>
       </c>
       <c r="X2" s="4">
-        <v>118407</v>
+        <v>174740</v>
       </c>
       <c r="Y2" s="4">
-        <v>11556</v>
+        <v>16721</v>
       </c>
       <c r="Z2" s="4">
-        <v>10498</v>
+        <v>11938</v>
       </c>
       <c r="AA2" s="4">
-        <v>5817</v>
+        <v>6837</v>
       </c>
       <c r="AB2" s="4">
-        <v>145335</v>
+        <v>135433</v>
       </c>
       <c r="AC2" s="4">
-        <v>595612</v>
+        <v>905080</v>
       </c>
       <c r="AD2" s="4">
-        <v>89408</v>
+        <v>116661</v>
       </c>
       <c r="AE2" s="4">
-        <v>80124</v>
+        <v>114013</v>
       </c>
       <c r="AF2" s="4">
-        <v>20104</v>
+        <v>25781</v>
       </c>
       <c r="AG2" s="4">
-        <v>142617</v>
+        <v>159610</v>
       </c>
       <c r="AH2" s="4">
-        <v>136127</v>
+        <v>160075</v>
       </c>
       <c r="AI2" s="4">
-        <v>188780</v>
+        <v>329727</v>
       </c>
       <c r="AJ2" s="4">
-        <v>26775</v>
+        <v>31920</v>
       </c>
       <c r="AK2" s="4">
-        <v>60420</v>
+        <v>77309</v>
       </c>
       <c r="AL2" s="4">
-        <v>123204</v>
+        <v>91205</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="4">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C3" s="4">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D3" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E3" s="4">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F3" s="4">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="G3" s="4">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="H3" s="4">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="I3" s="4">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="J3" s="4">
+        <v>100</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1847</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1219</v>
+      </c>
+      <c r="M3" s="4">
+        <v>2727</v>
+      </c>
+      <c r="N3" s="4">
+        <v>55</v>
+      </c>
+      <c r="O3" s="4">
+        <v>1737</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1452</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>186</v>
+      </c>
+      <c r="R3" s="4">
+        <v>486</v>
+      </c>
+      <c r="S3" s="4">
+        <v>176</v>
+      </c>
+      <c r="T3" s="4">
+        <v>207</v>
+      </c>
+      <c r="U3" s="4">
+        <v>451</v>
+      </c>
+      <c r="V3" s="4">
+        <v>92</v>
+      </c>
+      <c r="W3" s="4">
+        <v>87</v>
+      </c>
+      <c r="X3" s="4">
+        <v>199</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>53</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>59</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>75</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>265</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>1357</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>224</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>207</v>
+      </c>
+      <c r="AF3" s="4">
         <v>86</v>
       </c>
-      <c r="K3" s="4">
-        <v>1777</v>
-      </c>
-      <c r="L3" s="4">
-        <v>1120</v>
-      </c>
-      <c r="M3" s="4">
-        <v>2782</v>
-      </c>
-      <c r="N3" s="4">
-        <v>52</v>
-      </c>
-      <c r="O3" s="4">
-        <v>1779</v>
-      </c>
-      <c r="P3" s="4">
-        <v>1414</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>183</v>
-      </c>
-      <c r="R3" s="4">
-        <v>496</v>
-      </c>
-      <c r="S3" s="4">
-        <v>173</v>
-      </c>
-      <c r="T3" s="4">
-        <v>204</v>
-      </c>
-      <c r="U3" s="4">
-        <v>470</v>
-      </c>
-      <c r="V3" s="4">
-        <v>93</v>
-      </c>
-      <c r="W3" s="4">
-        <v>82</v>
-      </c>
-      <c r="X3" s="4">
-        <v>178</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>54</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>65</v>
-      </c>
-      <c r="AA3" s="4">
-        <v>73</v>
-      </c>
-      <c r="AB3" s="4">
-        <v>268</v>
-      </c>
-      <c r="AC3" s="4">
-        <v>1415</v>
-      </c>
-      <c r="AD3" s="4">
-        <v>220</v>
-      </c>
-      <c r="AE3" s="4">
-        <v>208</v>
-      </c>
-      <c r="AF3" s="4">
-        <v>87</v>
-      </c>
       <c r="AG3" s="4">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="AH3" s="4">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AI3" s="4">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="AJ3" s="4">
         <v>91</v>
       </c>
       <c r="AK3" s="4">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AL3" s="4">
         <v>842</v>
@@ -6928,243 +6929,243 @@
     </row>
     <row r="4" spans="1:38" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="6">
-        <v>198399</v>
+        <v>201983</v>
       </c>
       <c r="C4" s="6">
-        <v>682563</v>
+        <v>730979</v>
       </c>
       <c r="D4" s="6">
-        <v>50239</v>
+        <v>42168</v>
       </c>
       <c r="E4" s="6">
-        <v>903549</v>
+        <v>915007</v>
       </c>
       <c r="F4" s="6">
-        <v>621113</v>
+        <v>604635</v>
       </c>
       <c r="G4" s="6">
-        <v>563112</v>
+        <v>591480</v>
       </c>
       <c r="H4" s="6">
-        <v>683320</v>
+        <v>771068</v>
       </c>
       <c r="I4" s="6">
-        <v>520874</v>
+        <v>530607</v>
       </c>
       <c r="J4" s="6">
-        <v>304328</v>
+        <v>319091</v>
       </c>
       <c r="K4" s="6">
-        <v>2772617</v>
+        <v>2818110</v>
       </c>
       <c r="L4" s="6">
-        <v>1235140</v>
+        <v>1322423</v>
       </c>
       <c r="M4" s="6">
-        <v>2845477</v>
+        <v>2887215</v>
       </c>
       <c r="N4" s="6">
-        <v>190501</v>
+        <v>193325</v>
       </c>
       <c r="O4" s="6">
-        <v>1681498</v>
+        <v>1730434</v>
       </c>
       <c r="P4" s="6">
-        <v>1550608</v>
+        <v>1565568</v>
       </c>
       <c r="Q4" s="6">
-        <v>229263</v>
+        <v>229226</v>
       </c>
       <c r="R4" s="6">
-        <v>677777</v>
+        <v>712434</v>
       </c>
       <c r="S4" s="6">
-        <v>717157</v>
+        <v>809937</v>
       </c>
       <c r="T4" s="6">
-        <v>536948</v>
+        <v>565916</v>
       </c>
       <c r="U4" s="6">
-        <v>682995</v>
+        <v>707470</v>
       </c>
       <c r="V4" s="6">
-        <v>240571</v>
+        <v>242554</v>
       </c>
       <c r="W4" s="6">
-        <v>435890</v>
+        <v>467466</v>
       </c>
       <c r="X4" s="6">
-        <v>567805</v>
+        <v>585439</v>
       </c>
       <c r="Y4" s="6">
-        <v>101906</v>
+        <v>102774</v>
       </c>
       <c r="Z4" s="6">
-        <v>146380</v>
+        <v>152130</v>
       </c>
       <c r="AA4" s="6">
-        <v>56298</v>
+        <v>45440</v>
       </c>
       <c r="AB4" s="6">
-        <v>1671185</v>
+        <v>1702263</v>
       </c>
       <c r="AC4" s="6">
-        <v>2214690</v>
+        <v>2268666</v>
       </c>
       <c r="AD4" s="6">
-        <v>479220</v>
+        <v>504381</v>
       </c>
       <c r="AE4" s="6">
-        <v>632309</v>
+        <v>641881</v>
       </c>
       <c r="AF4" s="6">
-        <v>224039</v>
+        <v>225075</v>
       </c>
       <c r="AG4" s="6">
-        <v>690554</v>
+        <v>688316</v>
       </c>
       <c r="AH4" s="6">
-        <v>598230</v>
+        <v>634739</v>
       </c>
       <c r="AI4" s="6">
-        <v>1164916</v>
+        <v>1184665</v>
       </c>
       <c r="AJ4" s="6">
-        <v>273748</v>
+        <v>267411</v>
       </c>
       <c r="AK4" s="6">
-        <v>551569</v>
+        <v>601283</v>
       </c>
       <c r="AL4" s="6">
-        <v>320276</v>
+        <v>213133</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="6">
-        <v>46627</v>
+        <v>48742</v>
       </c>
       <c r="C5" s="6">
-        <v>263155</v>
+        <v>275568</v>
       </c>
       <c r="D5" s="6">
-        <v>18939</v>
+        <v>16214</v>
       </c>
       <c r="E5" s="6">
-        <v>366680</v>
+        <v>369833</v>
       </c>
       <c r="F5" s="6">
-        <v>562617</v>
+        <v>548497</v>
       </c>
       <c r="G5" s="6">
-        <v>205396</v>
+        <v>214760</v>
       </c>
       <c r="H5" s="6">
-        <v>239577</v>
+        <v>270277</v>
       </c>
       <c r="I5" s="6">
-        <v>228444</v>
+        <v>232312</v>
       </c>
       <c r="J5" s="6">
-        <v>162044</v>
+        <v>168708</v>
       </c>
       <c r="K5" s="6">
-        <v>1881337</v>
+        <v>1898328</v>
       </c>
       <c r="L5" s="6">
-        <v>1508424</v>
+        <v>1605962</v>
       </c>
       <c r="M5" s="6">
-        <v>2639898</v>
+        <v>2678824</v>
       </c>
       <c r="N5" s="6">
-        <v>74861</v>
+        <v>77796</v>
       </c>
       <c r="O5" s="6">
-        <v>1609082</v>
+        <v>1640648</v>
       </c>
       <c r="P5" s="6">
-        <v>1329980</v>
+        <v>1330020</v>
       </c>
       <c r="Q5" s="6">
-        <v>170939</v>
+        <v>166297</v>
       </c>
       <c r="R5" s="6">
-        <v>583639</v>
+        <v>608512</v>
       </c>
       <c r="S5" s="6">
-        <v>237116</v>
+        <v>256884</v>
       </c>
       <c r="T5" s="6">
-        <v>336801</v>
+        <v>351654</v>
       </c>
       <c r="U5" s="6">
-        <v>549703</v>
+        <v>547005</v>
       </c>
       <c r="V5" s="6">
-        <v>92886</v>
+        <v>95222</v>
       </c>
       <c r="W5" s="6">
-        <v>99652</v>
+        <v>101299</v>
       </c>
       <c r="X5" s="6">
-        <v>285969</v>
+        <v>293545</v>
       </c>
       <c r="Y5" s="6">
-        <v>77899</v>
+        <v>88034</v>
       </c>
       <c r="Z5" s="6">
-        <v>27956</v>
+        <v>29607</v>
       </c>
       <c r="AA5" s="6">
-        <v>18273</v>
+        <v>16616</v>
       </c>
       <c r="AB5" s="6">
-        <v>587342</v>
+        <v>600970</v>
       </c>
       <c r="AC5" s="6">
-        <v>1781191</v>
+        <v>1815361</v>
       </c>
       <c r="AD5" s="6">
-        <v>399808</v>
+        <v>417267</v>
       </c>
       <c r="AE5" s="6">
-        <v>298402</v>
+        <v>304059</v>
       </c>
       <c r="AF5" s="6">
-        <v>66194</v>
+        <v>67516</v>
       </c>
       <c r="AG5" s="6">
-        <v>493168</v>
+        <v>490783</v>
       </c>
       <c r="AH5" s="6">
-        <v>365642</v>
+        <v>384420</v>
       </c>
       <c r="AI5" s="6">
-        <v>450868</v>
+        <v>454594</v>
       </c>
       <c r="AJ5" s="6">
-        <v>57152</v>
+        <v>58165</v>
       </c>
       <c r="AK5" s="6">
-        <v>229245</v>
+        <v>247005</v>
       </c>
       <c r="AL5" s="6">
-        <v>291335</v>
+        <v>186111</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="7">
         <f>PRODUCT(B10,B8)</f>
-        <v>0</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" ref="C6:AL6" si="0">PRODUCT(C10,C8)</f>
@@ -7172,7 +7173,7 @@
       </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="E6" s="7">
         <f t="shared" si="0"/>
@@ -7236,7 +7237,7 @@
       </c>
       <c r="T6" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="U6" s="7">
         <f t="shared" si="0"/>
@@ -7244,7 +7245,7 @@
       </c>
       <c r="V6" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="W6" s="7">
         <f t="shared" si="0"/>
@@ -7256,7 +7257,7 @@
       </c>
       <c r="Y6" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="Z6" s="7">
         <f t="shared" si="0"/>
@@ -7264,7 +7265,7 @@
       </c>
       <c r="AA6" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="AB6" s="7">
         <f t="shared" si="0"/>
@@ -7284,7 +7285,7 @@
       </c>
       <c r="AF6" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="AG6" s="7">
         <f t="shared" si="0"/>
@@ -7300,7 +7301,7 @@
       </c>
       <c r="AJ6" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="AK6" s="7">
         <f t="shared" si="0"/>
@@ -7308,12 +7309,12 @@
       </c>
       <c r="AL6" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="13">
         <v>-40000</v>
@@ -7429,123 +7430,123 @@
     </row>
     <row r="9" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="10">
-        <v>0</v>
-      </c>
-      <c r="C10" s="10">
+        <v>41</v>
+      </c>
+      <c r="B10" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="C10" s="6">
         <v>4</v>
       </c>
-      <c r="D10" s="10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10">
+      <c r="D10" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="E10" s="6">
         <v>71</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="6">
         <v>31</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="6">
         <v>81</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="6">
         <v>4</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="6">
         <v>286</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="6">
         <v>787</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="6">
         <v>580</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="6">
         <v>117</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="6">
         <v>2514</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="6">
         <v>2</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="6">
         <v>579</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="6">
         <v>15</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q10" s="6">
         <v>6</v>
       </c>
-      <c r="R10" s="10">
+      <c r="R10" s="6">
         <v>680</v>
       </c>
-      <c r="S10" s="10">
+      <c r="S10" s="6">
         <v>19</v>
       </c>
-      <c r="T10" s="10">
-        <v>0</v>
-      </c>
-      <c r="U10" s="10">
+      <c r="T10" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="U10" s="6">
         <v>12</v>
       </c>
-      <c r="V10" s="10">
-        <v>0</v>
-      </c>
-      <c r="W10" s="10">
+      <c r="V10" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="W10" s="6">
         <v>35</v>
       </c>
-      <c r="X10" s="10">
+      <c r="X10" s="6">
         <v>53</v>
       </c>
-      <c r="Y10" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="10">
+      <c r="Y10" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="Z10" s="6">
         <v>2</v>
       </c>
-      <c r="AA10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="10">
+      <c r="AA10" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="AB10" s="6">
         <v>585</v>
       </c>
-      <c r="AC10" s="10">
+      <c r="AC10" s="6">
         <v>190</v>
       </c>
-      <c r="AD10" s="10">
+      <c r="AD10" s="6">
         <v>243</v>
       </c>
-      <c r="AE10" s="10">
+      <c r="AE10" s="6">
         <v>1</v>
       </c>
-      <c r="AF10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="10">
+      <c r="AF10" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="AG10" s="6">
         <v>128</v>
       </c>
-      <c r="AH10" s="10">
+      <c r="AH10" s="6">
         <v>19</v>
       </c>
-      <c r="AI10" s="10">
+      <c r="AI10" s="6">
         <v>108</v>
       </c>
-      <c r="AJ10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="10">
+      <c r="AJ10" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="AK10" s="6">
         <v>15</v>
       </c>
-      <c r="AL10" s="10">
-        <v>0</v>
+      <c r="AL10" s="6">
+        <v>9.9999999999999995E-8</v>
       </c>
     </row>
   </sheetData>
@@ -7557,8 +7558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:AL5"/>
+    <sheetView topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7573,7 +7574,7 @@
     <col min="12" max="12" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.21875" customWidth="1"/>
     <col min="16" max="17" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.109375" bestFit="1" customWidth="1"/>
@@ -7594,7 +7595,7 @@
     <col min="38" max="38" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -7638,76 +7639,76 @@
         <v>14</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -7715,228 +7716,228 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>18410</v>
+        <v>22488</v>
       </c>
       <c r="C2" s="4">
-        <v>92051</v>
+        <v>111291</v>
       </c>
       <c r="D2" s="4">
-        <v>4480</v>
+        <v>8873</v>
       </c>
       <c r="E2" s="4">
-        <v>150346</v>
+        <v>185762</v>
       </c>
       <c r="F2" s="4">
-        <v>94434</v>
+        <v>190529</v>
       </c>
       <c r="G2" s="4">
-        <v>98393</v>
+        <v>142114</v>
       </c>
       <c r="H2" s="4">
-        <v>69781</v>
+        <v>87713</v>
       </c>
       <c r="I2" s="4">
-        <v>76524</v>
+        <v>89648</v>
       </c>
       <c r="J2" s="4">
-        <v>34084</v>
+        <v>40989</v>
       </c>
       <c r="K2" s="4">
-        <v>829697</v>
+        <v>1043916</v>
       </c>
       <c r="L2" s="4">
-        <v>287980</v>
+        <v>430367</v>
       </c>
       <c r="M2" s="4">
-        <v>958920</v>
+        <v>1244896</v>
       </c>
       <c r="N2" s="4">
-        <v>14197</v>
+        <v>16477</v>
       </c>
       <c r="O2" s="4">
-        <v>604266</v>
+        <v>755500</v>
       </c>
       <c r="P2" s="4">
-        <v>556266</v>
+        <v>686571</v>
       </c>
       <c r="Q2" s="4">
-        <v>38230</v>
+        <v>64286</v>
       </c>
       <c r="R2" s="4">
-        <v>127715</v>
+        <v>152884</v>
       </c>
       <c r="S2" s="4">
-        <v>74539</v>
+        <v>93523</v>
       </c>
       <c r="T2" s="4">
-        <v>88518</v>
+        <v>109654</v>
       </c>
       <c r="U2" s="4">
-        <v>165810</v>
+        <v>183408</v>
       </c>
       <c r="V2" s="4">
-        <v>17271</v>
+        <v>22678</v>
       </c>
       <c r="W2" s="4">
-        <v>53196</v>
+        <v>58023</v>
       </c>
       <c r="X2" s="4">
-        <v>118407</v>
+        <v>174740</v>
       </c>
       <c r="Y2" s="4">
-        <v>11556</v>
+        <v>16721</v>
       </c>
       <c r="Z2" s="4">
-        <v>10498</v>
+        <v>11938</v>
       </c>
       <c r="AA2" s="4">
-        <v>5817</v>
+        <v>6837</v>
       </c>
       <c r="AB2" s="4">
-        <v>145335</v>
+        <v>135433</v>
       </c>
       <c r="AC2" s="4">
-        <v>595612</v>
+        <v>905080</v>
       </c>
       <c r="AD2" s="4">
-        <v>89408</v>
+        <v>116661</v>
       </c>
       <c r="AE2" s="4">
-        <v>80124</v>
+        <v>114013</v>
       </c>
       <c r="AF2" s="4">
-        <v>20104</v>
+        <v>25781</v>
       </c>
       <c r="AG2" s="4">
-        <v>142617</v>
+        <v>159610</v>
       </c>
       <c r="AH2" s="4">
-        <v>136127</v>
+        <v>160075</v>
       </c>
       <c r="AI2" s="4">
-        <v>188780</v>
+        <v>329727</v>
       </c>
       <c r="AJ2" s="4">
-        <v>26775</v>
+        <v>31920</v>
       </c>
       <c r="AK2" s="4">
-        <v>60420</v>
+        <v>77309</v>
       </c>
       <c r="AL2" s="4">
-        <v>123204</v>
+        <v>91205</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="4">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C3" s="4">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D3" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E3" s="4">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F3" s="4">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="G3" s="4">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="H3" s="4">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="I3" s="4">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="J3" s="4">
+        <v>100</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1847</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1219</v>
+      </c>
+      <c r="M3" s="4">
+        <v>2727</v>
+      </c>
+      <c r="N3" s="4">
+        <v>55</v>
+      </c>
+      <c r="O3" s="4">
+        <v>1737</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1452</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>186</v>
+      </c>
+      <c r="R3" s="4">
+        <v>486</v>
+      </c>
+      <c r="S3" s="4">
+        <v>176</v>
+      </c>
+      <c r="T3" s="4">
+        <v>207</v>
+      </c>
+      <c r="U3" s="4">
+        <v>451</v>
+      </c>
+      <c r="V3" s="4">
+        <v>92</v>
+      </c>
+      <c r="W3" s="4">
+        <v>87</v>
+      </c>
+      <c r="X3" s="4">
+        <v>199</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>53</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>59</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>75</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>265</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>1357</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>224</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>207</v>
+      </c>
+      <c r="AF3" s="4">
         <v>86</v>
       </c>
-      <c r="K3" s="4">
-        <v>1777</v>
-      </c>
-      <c r="L3" s="4">
-        <v>1120</v>
-      </c>
-      <c r="M3" s="4">
-        <v>2782</v>
-      </c>
-      <c r="N3" s="4">
-        <v>52</v>
-      </c>
-      <c r="O3" s="4">
-        <v>1779</v>
-      </c>
-      <c r="P3" s="4">
-        <v>1414</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>183</v>
-      </c>
-      <c r="R3" s="4">
-        <v>496</v>
-      </c>
-      <c r="S3" s="4">
-        <v>173</v>
-      </c>
-      <c r="T3" s="4">
-        <v>204</v>
-      </c>
-      <c r="U3" s="4">
-        <v>470</v>
-      </c>
-      <c r="V3" s="4">
-        <v>93</v>
-      </c>
-      <c r="W3" s="4">
-        <v>82</v>
-      </c>
-      <c r="X3" s="4">
-        <v>178</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>54</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>65</v>
-      </c>
-      <c r="AA3" s="4">
-        <v>73</v>
-      </c>
-      <c r="AB3" s="4">
-        <v>268</v>
-      </c>
-      <c r="AC3" s="4">
-        <v>1415</v>
-      </c>
-      <c r="AD3" s="4">
-        <v>220</v>
-      </c>
-      <c r="AE3" s="4">
-        <v>208</v>
-      </c>
-      <c r="AF3" s="4">
-        <v>87</v>
-      </c>
       <c r="AG3" s="4">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="AH3" s="4">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AI3" s="4">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="AJ3" s="4">
         <v>91</v>
       </c>
       <c r="AK3" s="4">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AL3" s="4">
         <v>842</v>
@@ -7944,243 +7945,243 @@
     </row>
     <row r="4" spans="1:38" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="6">
-        <v>198399</v>
+        <v>201983</v>
       </c>
       <c r="C4" s="6">
-        <v>682563</v>
+        <v>730979</v>
       </c>
       <c r="D4" s="6">
-        <v>50239</v>
+        <v>42168</v>
       </c>
       <c r="E4" s="6">
-        <v>903549</v>
+        <v>915007</v>
       </c>
       <c r="F4" s="6">
-        <v>621113</v>
+        <v>604635</v>
       </c>
       <c r="G4" s="6">
-        <v>563112</v>
+        <v>591480</v>
       </c>
       <c r="H4" s="6">
-        <v>683320</v>
+        <v>771068</v>
       </c>
       <c r="I4" s="6">
-        <v>520874</v>
+        <v>530607</v>
       </c>
       <c r="J4" s="6">
-        <v>304328</v>
+        <v>319091</v>
       </c>
       <c r="K4" s="6">
-        <v>2772617</v>
+        <v>2818110</v>
       </c>
       <c r="L4" s="6">
-        <v>1235140</v>
+        <v>1322423</v>
       </c>
       <c r="M4" s="6">
-        <v>2845477</v>
+        <v>2887215</v>
       </c>
       <c r="N4" s="6">
-        <v>190501</v>
+        <v>193325</v>
       </c>
       <c r="O4" s="6">
-        <v>1681498</v>
+        <v>1730434</v>
       </c>
       <c r="P4" s="6">
-        <v>1550608</v>
+        <v>1565568</v>
       </c>
       <c r="Q4" s="6">
-        <v>229263</v>
+        <v>229226</v>
       </c>
       <c r="R4" s="6">
-        <v>677777</v>
+        <v>712434</v>
       </c>
       <c r="S4" s="6">
-        <v>717157</v>
+        <v>809937</v>
       </c>
       <c r="T4" s="6">
-        <v>536948</v>
+        <v>565916</v>
       </c>
       <c r="U4" s="6">
-        <v>682995</v>
+        <v>707470</v>
       </c>
       <c r="V4" s="6">
-        <v>240571</v>
+        <v>242554</v>
       </c>
       <c r="W4" s="6">
-        <v>435890</v>
+        <v>467466</v>
       </c>
       <c r="X4" s="6">
-        <v>567805</v>
+        <v>585439</v>
       </c>
       <c r="Y4" s="6">
-        <v>101906</v>
+        <v>102774</v>
       </c>
       <c r="Z4" s="6">
-        <v>146380</v>
+        <v>152130</v>
       </c>
       <c r="AA4" s="6">
-        <v>56298</v>
+        <v>45440</v>
       </c>
       <c r="AB4" s="6">
-        <v>1671185</v>
+        <v>1702263</v>
       </c>
       <c r="AC4" s="6">
-        <v>2214690</v>
+        <v>2268666</v>
       </c>
       <c r="AD4" s="6">
-        <v>479220</v>
+        <v>504381</v>
       </c>
       <c r="AE4" s="6">
-        <v>632309</v>
+        <v>641881</v>
       </c>
       <c r="AF4" s="6">
-        <v>224039</v>
+        <v>225075</v>
       </c>
       <c r="AG4" s="6">
-        <v>690554</v>
+        <v>688316</v>
       </c>
       <c r="AH4" s="6">
-        <v>598230</v>
+        <v>634739</v>
       </c>
       <c r="AI4" s="6">
-        <v>1164916</v>
+        <v>1184665</v>
       </c>
       <c r="AJ4" s="6">
-        <v>273748</v>
+        <v>267411</v>
       </c>
       <c r="AK4" s="6">
-        <v>551569</v>
+        <v>601283</v>
       </c>
       <c r="AL4" s="6">
-        <v>320276</v>
+        <v>213133</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="6">
-        <v>46627</v>
+        <v>48742</v>
       </c>
       <c r="C5" s="6">
-        <v>263155</v>
+        <v>275568</v>
       </c>
       <c r="D5" s="6">
-        <v>18939</v>
+        <v>16214</v>
       </c>
       <c r="E5" s="6">
-        <v>366680</v>
+        <v>369833</v>
       </c>
       <c r="F5" s="6">
-        <v>562617</v>
+        <v>548497</v>
       </c>
       <c r="G5" s="6">
-        <v>205396</v>
+        <v>214760</v>
       </c>
       <c r="H5" s="6">
-        <v>239577</v>
+        <v>270277</v>
       </c>
       <c r="I5" s="6">
-        <v>228444</v>
+        <v>232312</v>
       </c>
       <c r="J5" s="6">
-        <v>162044</v>
+        <v>168708</v>
       </c>
       <c r="K5" s="6">
-        <v>1881337</v>
+        <v>1898328</v>
       </c>
       <c r="L5" s="6">
-        <v>1508424</v>
+        <v>1605962</v>
       </c>
       <c r="M5" s="6">
-        <v>2639898</v>
+        <v>2678824</v>
       </c>
       <c r="N5" s="6">
-        <v>74861</v>
+        <v>77796</v>
       </c>
       <c r="O5" s="6">
-        <v>1609082</v>
+        <v>1640648</v>
       </c>
       <c r="P5" s="6">
-        <v>1329980</v>
+        <v>1330020</v>
       </c>
       <c r="Q5" s="6">
-        <v>170939</v>
+        <v>166297</v>
       </c>
       <c r="R5" s="6">
-        <v>583639</v>
+        <v>608512</v>
       </c>
       <c r="S5" s="6">
-        <v>237116</v>
+        <v>256884</v>
       </c>
       <c r="T5" s="6">
-        <v>336801</v>
+        <v>351654</v>
       </c>
       <c r="U5" s="6">
-        <v>549703</v>
+        <v>547005</v>
       </c>
       <c r="V5" s="6">
-        <v>92886</v>
+        <v>95222</v>
       </c>
       <c r="W5" s="6">
-        <v>99652</v>
+        <v>101299</v>
       </c>
       <c r="X5" s="6">
-        <v>285969</v>
+        <v>293545</v>
       </c>
       <c r="Y5" s="6">
-        <v>77899</v>
+        <v>88034</v>
       </c>
       <c r="Z5" s="6">
-        <v>27956</v>
+        <v>29607</v>
       </c>
       <c r="AA5" s="6">
-        <v>18273</v>
+        <v>16616</v>
       </c>
       <c r="AB5" s="6">
-        <v>587342</v>
+        <v>600970</v>
       </c>
       <c r="AC5" s="6">
-        <v>1781191</v>
+        <v>1815361</v>
       </c>
       <c r="AD5" s="6">
-        <v>399808</v>
+        <v>417267</v>
       </c>
       <c r="AE5" s="6">
-        <v>298402</v>
+        <v>304059</v>
       </c>
       <c r="AF5" s="6">
-        <v>66194</v>
+        <v>67516</v>
       </c>
       <c r="AG5" s="6">
-        <v>493168</v>
+        <v>490783</v>
       </c>
       <c r="AH5" s="6">
-        <v>365642</v>
+        <v>384420</v>
       </c>
       <c r="AI5" s="6">
-        <v>450868</v>
+        <v>454594</v>
       </c>
       <c r="AJ5" s="6">
-        <v>57152</v>
+        <v>58165</v>
       </c>
       <c r="AK5" s="6">
-        <v>229245</v>
+        <v>247005</v>
       </c>
       <c r="AL5" s="6">
-        <v>291335</v>
+        <v>186111</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="14">
         <f xml:space="preserve"> 1 / (0.5 +B9)</f>
-        <v>2</v>
+        <v>1.9999996000000801</v>
       </c>
       <c r="C6" s="14">
         <f t="shared" ref="C6:AL6" si="0" xml:space="preserve"> 1 / (0.5 +C9)</f>
@@ -8188,7 +8189,7 @@
       </c>
       <c r="D6" s="14">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1.9999996000000801</v>
       </c>
       <c r="E6" s="14">
         <f t="shared" si="0"/>
@@ -8252,7 +8253,7 @@
       </c>
       <c r="T6" s="14">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1.9999996000000801</v>
       </c>
       <c r="U6" s="14">
         <f t="shared" si="0"/>
@@ -8260,7 +8261,7 @@
       </c>
       <c r="V6" s="14">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1.9999996000000801</v>
       </c>
       <c r="W6" s="14">
         <f t="shared" si="0"/>
@@ -8272,7 +8273,7 @@
       </c>
       <c r="Y6" s="14">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1.9999996000000801</v>
       </c>
       <c r="Z6" s="14">
         <f t="shared" si="0"/>
@@ -8280,7 +8281,7 @@
       </c>
       <c r="AA6" s="14">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1.9999996000000801</v>
       </c>
       <c r="AB6" s="14">
         <f t="shared" si="0"/>
@@ -8300,7 +8301,7 @@
       </c>
       <c r="AF6" s="14">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1.9999996000000801</v>
       </c>
       <c r="AG6" s="14">
         <f t="shared" si="0"/>
@@ -8316,7 +8317,7 @@
       </c>
       <c r="AJ6" s="14">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1.9999996000000801</v>
       </c>
       <c r="AK6" s="14">
         <f t="shared" si="0"/>
@@ -8324,128 +8325,128 @@
       </c>
       <c r="AL6" s="14">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1.9999996000000801</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="10">
-        <v>0</v>
-      </c>
-      <c r="C9" s="10">
+        <v>41</v>
+      </c>
+      <c r="B9" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="C9" s="6">
         <v>4</v>
       </c>
-      <c r="D9" s="10">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="D9" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="E9" s="6">
         <v>71</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="6">
         <v>31</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="6">
         <v>81</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="6">
         <v>4</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="6">
         <v>286</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="6">
         <v>787</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="6">
         <v>580</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="6">
         <v>117</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="6">
         <v>2514</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="6">
         <v>2</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="6">
         <v>579</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="6">
         <v>15</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="6">
         <v>6</v>
       </c>
-      <c r="R9" s="10">
+      <c r="R9" s="6">
         <v>680</v>
       </c>
-      <c r="S9" s="10">
+      <c r="S9" s="6">
         <v>19</v>
       </c>
-      <c r="T9" s="10">
-        <v>0</v>
-      </c>
-      <c r="U9" s="10">
+      <c r="T9" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="U9" s="6">
         <v>12</v>
       </c>
-      <c r="V9" s="10">
-        <v>0</v>
-      </c>
-      <c r="W9" s="10">
+      <c r="V9" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="W9" s="6">
         <v>35</v>
       </c>
-      <c r="X9" s="10">
+      <c r="X9" s="6">
         <v>53</v>
       </c>
-      <c r="Y9" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="10">
+      <c r="Y9" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="Z9" s="6">
         <v>2</v>
       </c>
-      <c r="AA9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="10">
+      <c r="AA9" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="AB9" s="6">
         <v>585</v>
       </c>
-      <c r="AC9" s="10">
+      <c r="AC9" s="6">
         <v>190</v>
       </c>
-      <c r="AD9" s="10">
+      <c r="AD9" s="6">
         <v>243</v>
       </c>
-      <c r="AE9" s="10">
+      <c r="AE9" s="6">
         <v>1</v>
       </c>
-      <c r="AF9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="10">
+      <c r="AF9" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="AG9" s="6">
         <v>128</v>
       </c>
-      <c r="AH9" s="10">
+      <c r="AH9" s="6">
         <v>19</v>
       </c>
-      <c r="AI9" s="10">
+      <c r="AI9" s="6">
         <v>108</v>
       </c>
-      <c r="AJ9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="10">
+      <c r="AJ9" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="AK9" s="6">
         <v>15</v>
       </c>
-      <c r="AL9" s="10">
-        <v>0</v>
+      <c r="AL9" s="6">
+        <v>9.9999999999999995E-8</v>
       </c>
     </row>
   </sheetData>
@@ -8459,7 +8460,7 @@
   <dimension ref="A1:AL4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B3" sqref="B3:AL4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8574,424 +8575,424 @@
         <v>14</v>
       </c>
       <c r="O1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AD1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AE1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AF1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AG1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AH1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AI1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AK1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AL1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AL1" s="9" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="2" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="4">
         <v>22488</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="4">
         <v>111291</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="4">
         <v>8873</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="4">
         <v>185762</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="4">
         <v>190529</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="4">
         <v>142114</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="4">
         <v>87713</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="4">
         <v>89648</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="4">
         <v>40989</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="4">
         <v>1043916</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="4">
         <v>430367</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="4">
         <v>1244896</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="4">
         <v>16477</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="4">
         <v>755500</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="4">
         <v>686571</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="4">
         <v>64286</v>
       </c>
-      <c r="R2" s="9">
+      <c r="R2" s="4">
         <v>152884</v>
       </c>
-      <c r="S2" s="9">
+      <c r="S2" s="4">
         <v>93523</v>
       </c>
-      <c r="T2" s="9">
+      <c r="T2" s="4">
         <v>109654</v>
       </c>
-      <c r="U2" s="9">
+      <c r="U2" s="4">
         <v>183408</v>
       </c>
-      <c r="V2" s="9">
+      <c r="V2" s="4">
         <v>22678</v>
       </c>
-      <c r="W2" s="9">
+      <c r="W2" s="4">
         <v>58023</v>
       </c>
-      <c r="X2" s="9">
+      <c r="X2" s="4">
         <v>174740</v>
       </c>
-      <c r="Y2" s="9">
+      <c r="Y2" s="4">
         <v>16721</v>
       </c>
-      <c r="Z2" s="9">
+      <c r="Z2" s="4">
         <v>11938</v>
       </c>
-      <c r="AA2" s="9">
+      <c r="AA2" s="4">
         <v>6837</v>
       </c>
-      <c r="AB2" s="9">
+      <c r="AB2" s="4">
         <v>135433</v>
       </c>
-      <c r="AC2" s="9">
+      <c r="AC2" s="4">
         <v>905080</v>
       </c>
-      <c r="AD2" s="9">
+      <c r="AD2" s="4">
         <v>116661</v>
       </c>
-      <c r="AE2" s="9">
+      <c r="AE2" s="4">
         <v>114013</v>
       </c>
-      <c r="AF2" s="9">
+      <c r="AF2" s="4">
         <v>25781</v>
       </c>
-      <c r="AG2" s="9">
+      <c r="AG2" s="4">
         <v>159610</v>
       </c>
-      <c r="AH2" s="9">
+      <c r="AH2" s="4">
         <v>160075</v>
       </c>
-      <c r="AI2" s="9">
+      <c r="AI2" s="4">
         <v>329727</v>
       </c>
-      <c r="AJ2" s="9">
+      <c r="AJ2" s="4">
         <v>31920</v>
       </c>
-      <c r="AK2" s="9">
+      <c r="AK2" s="4">
         <v>77309</v>
       </c>
-      <c r="AL2" s="9">
+      <c r="AL2" s="4">
         <v>91205</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="6">
+        <v>201983</v>
+      </c>
+      <c r="C3" s="6">
+        <v>730979</v>
+      </c>
+      <c r="D3" s="6">
+        <v>42168</v>
+      </c>
+      <c r="E3" s="6">
+        <v>915007</v>
+      </c>
+      <c r="F3" s="6">
+        <v>604635</v>
+      </c>
+      <c r="G3" s="6">
+        <v>591480</v>
+      </c>
+      <c r="H3" s="6">
+        <v>771068</v>
+      </c>
+      <c r="I3" s="6">
+        <v>530607</v>
+      </c>
+      <c r="J3" s="6">
+        <v>319091</v>
+      </c>
+      <c r="K3" s="6">
+        <v>2818110</v>
+      </c>
+      <c r="L3" s="6">
+        <v>1322423</v>
+      </c>
+      <c r="M3" s="6">
+        <v>2887215</v>
+      </c>
+      <c r="N3" s="6">
+        <v>193325</v>
+      </c>
+      <c r="O3" s="6">
+        <v>1730434</v>
+      </c>
+      <c r="P3" s="6">
+        <v>1565568</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>229226</v>
+      </c>
+      <c r="R3" s="6">
+        <v>712434</v>
+      </c>
+      <c r="S3" s="6">
+        <v>809937</v>
+      </c>
+      <c r="T3" s="6">
+        <v>565916</v>
+      </c>
+      <c r="U3" s="6">
+        <v>707470</v>
+      </c>
+      <c r="V3" s="6">
+        <v>242554</v>
+      </c>
+      <c r="W3" s="6">
+        <v>467466</v>
+      </c>
+      <c r="X3" s="6">
+        <v>585439</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>102774</v>
+      </c>
+      <c r="Z3" s="6">
+        <v>152130</v>
+      </c>
+      <c r="AA3" s="6">
+        <v>45440</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>1702263</v>
+      </c>
+      <c r="AC3" s="6">
+        <v>2268666</v>
+      </c>
+      <c r="AD3" s="6">
+        <v>504381</v>
+      </c>
+      <c r="AE3" s="6">
+        <v>641881</v>
+      </c>
+      <c r="AF3" s="6">
+        <v>225075</v>
+      </c>
+      <c r="AG3" s="6">
+        <v>688316</v>
+      </c>
+      <c r="AH3" s="6">
+        <v>634739</v>
+      </c>
+      <c r="AI3" s="6">
+        <v>1184665</v>
+      </c>
+      <c r="AJ3" s="6">
+        <v>267411</v>
+      </c>
+      <c r="AK3" s="6">
+        <v>601283</v>
+      </c>
+      <c r="AL3" s="6">
+        <v>213133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="10">
-        <v>198399</v>
-      </c>
-      <c r="C3" s="10">
-        <v>682563</v>
-      </c>
-      <c r="D3" s="10">
-        <v>50239</v>
-      </c>
-      <c r="E3" s="10">
-        <v>903549</v>
-      </c>
-      <c r="F3" s="10">
-        <v>621113</v>
-      </c>
-      <c r="G3" s="10">
-        <v>563112</v>
-      </c>
-      <c r="H3" s="10">
-        <v>683320</v>
-      </c>
-      <c r="I3" s="10">
-        <v>520874</v>
-      </c>
-      <c r="J3" s="10">
-        <v>304328</v>
-      </c>
-      <c r="K3" s="10">
-        <v>2772617</v>
-      </c>
-      <c r="L3" s="10">
-        <v>1235140</v>
-      </c>
-      <c r="M3" s="10">
-        <v>2845477</v>
-      </c>
-      <c r="N3" s="10">
-        <v>190501</v>
-      </c>
-      <c r="O3" s="10">
-        <v>1681498</v>
-      </c>
-      <c r="P3" s="10">
-        <v>1550608</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>229263</v>
-      </c>
-      <c r="R3" s="10">
-        <v>677777</v>
-      </c>
-      <c r="S3" s="10">
-        <v>717157</v>
-      </c>
-      <c r="T3" s="10">
-        <v>536948</v>
-      </c>
-      <c r="U3" s="10">
-        <v>682995</v>
-      </c>
-      <c r="V3" s="10">
-        <v>240571</v>
-      </c>
-      <c r="W3" s="10">
-        <v>435890</v>
-      </c>
-      <c r="X3" s="10">
-        <v>567805</v>
-      </c>
-      <c r="Y3" s="10">
-        <v>101906</v>
-      </c>
-      <c r="Z3" s="10">
-        <v>146380</v>
-      </c>
-      <c r="AA3" s="10">
-        <v>56298</v>
-      </c>
-      <c r="AB3" s="10">
-        <v>1671185</v>
-      </c>
-      <c r="AC3" s="10">
-        <v>2214690</v>
-      </c>
-      <c r="AD3" s="10">
-        <v>479220</v>
-      </c>
-      <c r="AE3" s="10">
-        <v>632309</v>
-      </c>
-      <c r="AF3" s="10">
-        <v>224039</v>
-      </c>
-      <c r="AG3" s="10">
-        <v>690554</v>
-      </c>
-      <c r="AH3" s="10">
-        <v>598230</v>
-      </c>
-      <c r="AI3" s="10">
-        <v>1164916</v>
-      </c>
-      <c r="AJ3" s="10">
-        <v>273748</v>
-      </c>
-      <c r="AK3" s="10">
-        <v>551569</v>
-      </c>
-      <c r="AL3" s="10">
-        <v>320276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="10">
-        <v>46627</v>
-      </c>
-      <c r="C4" s="10">
-        <v>263155</v>
-      </c>
-      <c r="D4" s="10">
-        <v>18939</v>
-      </c>
-      <c r="E4" s="10">
-        <v>366680</v>
-      </c>
-      <c r="F4" s="10">
-        <v>562617</v>
-      </c>
-      <c r="G4" s="10">
-        <v>205396</v>
-      </c>
-      <c r="H4" s="10">
-        <v>239577</v>
-      </c>
-      <c r="I4" s="10">
-        <v>228444</v>
-      </c>
-      <c r="J4" s="10">
-        <v>162044</v>
-      </c>
-      <c r="K4" s="10">
-        <v>1881337</v>
-      </c>
-      <c r="L4" s="10">
-        <v>1508424</v>
-      </c>
-      <c r="M4" s="10">
-        <v>2639898</v>
-      </c>
-      <c r="N4" s="10">
-        <v>74861</v>
-      </c>
-      <c r="O4" s="10">
-        <v>1609082</v>
-      </c>
-      <c r="P4" s="10">
-        <v>1329980</v>
-      </c>
-      <c r="Q4" s="10">
-        <v>170939</v>
-      </c>
-      <c r="R4" s="10">
-        <v>583639</v>
-      </c>
-      <c r="S4" s="10">
-        <v>237116</v>
-      </c>
-      <c r="T4" s="10">
-        <v>336801</v>
-      </c>
-      <c r="U4" s="10">
-        <v>549703</v>
-      </c>
-      <c r="V4" s="10">
-        <v>92886</v>
-      </c>
-      <c r="W4" s="10">
-        <v>99652</v>
-      </c>
-      <c r="X4" s="10">
-        <v>285969</v>
-      </c>
-      <c r="Y4" s="10">
-        <v>77899</v>
-      </c>
-      <c r="Z4" s="10">
-        <v>27956</v>
-      </c>
-      <c r="AA4" s="10">
-        <v>18273</v>
-      </c>
-      <c r="AB4" s="10">
-        <v>587342</v>
-      </c>
-      <c r="AC4" s="10">
-        <v>1781191</v>
-      </c>
-      <c r="AD4" s="10">
-        <v>399808</v>
-      </c>
-      <c r="AE4" s="10">
-        <v>298402</v>
-      </c>
-      <c r="AF4" s="10">
-        <v>66194</v>
-      </c>
-      <c r="AG4" s="10">
-        <v>493168</v>
-      </c>
-      <c r="AH4" s="10">
-        <v>365642</v>
-      </c>
-      <c r="AI4" s="10">
-        <v>450868</v>
-      </c>
-      <c r="AJ4" s="10">
-        <v>57152</v>
-      </c>
-      <c r="AK4" s="10">
-        <v>229245</v>
-      </c>
-      <c r="AL4" s="10">
-        <v>291335</v>
+      <c r="B4" s="6">
+        <v>48742</v>
+      </c>
+      <c r="C4" s="6">
+        <v>275568</v>
+      </c>
+      <c r="D4" s="6">
+        <v>16214</v>
+      </c>
+      <c r="E4" s="6">
+        <v>369833</v>
+      </c>
+      <c r="F4" s="6">
+        <v>548497</v>
+      </c>
+      <c r="G4" s="6">
+        <v>214760</v>
+      </c>
+      <c r="H4" s="6">
+        <v>270277</v>
+      </c>
+      <c r="I4" s="6">
+        <v>232312</v>
+      </c>
+      <c r="J4" s="6">
+        <v>168708</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1898328</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1605962</v>
+      </c>
+      <c r="M4" s="6">
+        <v>2678824</v>
+      </c>
+      <c r="N4" s="6">
+        <v>77796</v>
+      </c>
+      <c r="O4" s="6">
+        <v>1640648</v>
+      </c>
+      <c r="P4" s="6">
+        <v>1330020</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>166297</v>
+      </c>
+      <c r="R4" s="6">
+        <v>608512</v>
+      </c>
+      <c r="S4" s="6">
+        <v>256884</v>
+      </c>
+      <c r="T4" s="6">
+        <v>351654</v>
+      </c>
+      <c r="U4" s="6">
+        <v>547005</v>
+      </c>
+      <c r="V4" s="6">
+        <v>95222</v>
+      </c>
+      <c r="W4" s="6">
+        <v>101299</v>
+      </c>
+      <c r="X4" s="6">
+        <v>293545</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>88034</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>29607</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>16616</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>600970</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>1815361</v>
+      </c>
+      <c r="AD4" s="6">
+        <v>417267</v>
+      </c>
+      <c r="AE4" s="6">
+        <v>304059</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>67516</v>
+      </c>
+      <c r="AG4" s="6">
+        <v>490783</v>
+      </c>
+      <c r="AH4" s="6">
+        <v>384420</v>
+      </c>
+      <c r="AI4" s="6">
+        <v>454594</v>
+      </c>
+      <c r="AJ4" s="6">
+        <v>58165</v>
+      </c>
+      <c r="AK4" s="6">
+        <v>247005</v>
+      </c>
+      <c r="AL4" s="6">
+        <v>186111</v>
       </c>
     </row>
   </sheetData>
@@ -9004,7 +9005,7 @@
   <dimension ref="A1:AM6"/>
   <sheetViews>
     <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:AL6"/>
+      <selection activeCell="B4" sqref="B4:AL4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9053,316 +9054,316 @@
         <v>14</v>
       </c>
       <c r="O1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AD1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AE1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AF1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AG1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AH1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AI1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AK1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AL1" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="AL1" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="AM1" s="11"/>
     </row>
-    <row r="2" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9">
-        <v>18410</v>
-      </c>
-      <c r="C2" s="9">
-        <v>92051</v>
-      </c>
-      <c r="D2" s="9">
-        <v>4480</v>
-      </c>
-      <c r="E2" s="9">
-        <v>150346</v>
-      </c>
-      <c r="F2" s="9">
-        <v>94434</v>
-      </c>
-      <c r="G2" s="9">
-        <v>98393</v>
-      </c>
-      <c r="H2" s="9">
-        <v>69781</v>
-      </c>
-      <c r="I2" s="9">
-        <v>76524</v>
-      </c>
-      <c r="J2" s="9">
-        <v>34084</v>
-      </c>
-      <c r="K2" s="9">
-        <v>829697</v>
-      </c>
-      <c r="L2" s="9">
-        <v>287980</v>
-      </c>
-      <c r="M2" s="9">
-        <v>958920</v>
-      </c>
-      <c r="N2" s="9">
-        <v>14197</v>
-      </c>
-      <c r="O2" s="9">
-        <v>604266</v>
-      </c>
-      <c r="P2" s="9">
-        <v>556266</v>
-      </c>
-      <c r="Q2" s="9">
-        <v>38230</v>
-      </c>
-      <c r="R2" s="9">
-        <v>127715</v>
-      </c>
-      <c r="S2" s="9">
-        <v>74539</v>
-      </c>
-      <c r="T2" s="9">
-        <v>88518</v>
-      </c>
-      <c r="U2" s="9">
-        <v>165810</v>
-      </c>
-      <c r="V2" s="9">
-        <v>17271</v>
-      </c>
-      <c r="W2" s="9">
-        <v>53196</v>
-      </c>
-      <c r="X2" s="9">
-        <v>118407</v>
-      </c>
-      <c r="Y2" s="9">
-        <v>11556</v>
-      </c>
-      <c r="Z2" s="9">
-        <v>10498</v>
-      </c>
-      <c r="AA2" s="9">
-        <v>5817</v>
-      </c>
-      <c r="AB2" s="9">
-        <v>145335</v>
-      </c>
-      <c r="AC2" s="9">
-        <v>595612</v>
-      </c>
-      <c r="AD2" s="9">
-        <v>89408</v>
-      </c>
-      <c r="AE2" s="9">
-        <v>80124</v>
-      </c>
-      <c r="AF2" s="9">
-        <v>20104</v>
-      </c>
-      <c r="AG2" s="9">
-        <v>142617</v>
-      </c>
-      <c r="AH2" s="9">
-        <v>136127</v>
-      </c>
-      <c r="AI2" s="9">
-        <v>188780</v>
-      </c>
-      <c r="AJ2" s="9">
-        <v>26775</v>
-      </c>
-      <c r="AK2" s="9">
-        <v>60420</v>
-      </c>
-      <c r="AL2" s="9">
-        <v>123204</v>
+      <c r="B2" s="4">
+        <v>22488</v>
+      </c>
+      <c r="C2" s="4">
+        <v>111291</v>
+      </c>
+      <c r="D2" s="4">
+        <v>8873</v>
+      </c>
+      <c r="E2" s="4">
+        <v>185762</v>
+      </c>
+      <c r="F2" s="4">
+        <v>190529</v>
+      </c>
+      <c r="G2" s="4">
+        <v>142114</v>
+      </c>
+      <c r="H2" s="4">
+        <v>87713</v>
+      </c>
+      <c r="I2" s="4">
+        <v>89648</v>
+      </c>
+      <c r="J2" s="4">
+        <v>40989</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1043916</v>
+      </c>
+      <c r="L2" s="4">
+        <v>430367</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1244896</v>
+      </c>
+      <c r="N2" s="4">
+        <v>16477</v>
+      </c>
+      <c r="O2" s="4">
+        <v>755500</v>
+      </c>
+      <c r="P2" s="4">
+        <v>686571</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>64286</v>
+      </c>
+      <c r="R2" s="4">
+        <v>152884</v>
+      </c>
+      <c r="S2" s="4">
+        <v>93523</v>
+      </c>
+      <c r="T2" s="4">
+        <v>109654</v>
+      </c>
+      <c r="U2" s="4">
+        <v>183408</v>
+      </c>
+      <c r="V2" s="4">
+        <v>22678</v>
+      </c>
+      <c r="W2" s="4">
+        <v>58023</v>
+      </c>
+      <c r="X2" s="4">
+        <v>174740</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>16721</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>11938</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>6837</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>135433</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>905080</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>116661</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>114013</v>
+      </c>
+      <c r="AF2" s="4">
+        <v>25781</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>159610</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>160075</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>329727</v>
+      </c>
+      <c r="AJ2" s="4">
+        <v>31920</v>
+      </c>
+      <c r="AK2" s="4">
+        <v>77309</v>
+      </c>
+      <c r="AL2" s="4">
+        <v>91205</v>
       </c>
       <c r="AM2" s="11"/>
     </row>
-    <row r="3" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="9">
-        <v>49</v>
-      </c>
-      <c r="C3" s="9">
-        <v>192</v>
-      </c>
-      <c r="D3" s="9">
-        <v>82</v>
-      </c>
-      <c r="E3" s="9">
-        <v>291</v>
-      </c>
-      <c r="F3" s="9">
-        <v>407</v>
-      </c>
-      <c r="G3" s="9">
-        <v>232</v>
-      </c>
-      <c r="H3" s="9">
-        <v>248</v>
-      </c>
-      <c r="I3" s="9">
-        <v>234</v>
-      </c>
-      <c r="J3" s="9">
+        <v>38</v>
+      </c>
+      <c r="B3" s="4">
+        <v>70</v>
+      </c>
+      <c r="C3" s="4">
+        <v>190</v>
+      </c>
+      <c r="D3" s="4">
+        <v>83</v>
+      </c>
+      <c r="E3" s="4">
+        <v>294</v>
+      </c>
+      <c r="F3" s="4">
+        <v>382</v>
+      </c>
+      <c r="G3" s="4">
+        <v>225</v>
+      </c>
+      <c r="H3" s="4">
+        <v>257</v>
+      </c>
+      <c r="I3" s="4">
+        <v>237</v>
+      </c>
+      <c r="J3" s="4">
+        <v>100</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1847</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1219</v>
+      </c>
+      <c r="M3" s="4">
+        <v>2727</v>
+      </c>
+      <c r="N3" s="4">
+        <v>55</v>
+      </c>
+      <c r="O3" s="4">
+        <v>1737</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1452</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>186</v>
+      </c>
+      <c r="R3" s="4">
+        <v>486</v>
+      </c>
+      <c r="S3" s="4">
+        <v>176</v>
+      </c>
+      <c r="T3" s="4">
+        <v>207</v>
+      </c>
+      <c r="U3" s="4">
+        <v>451</v>
+      </c>
+      <c r="V3" s="4">
+        <v>92</v>
+      </c>
+      <c r="W3" s="4">
+        <v>87</v>
+      </c>
+      <c r="X3" s="4">
+        <v>199</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>53</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>59</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>75</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>265</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>1357</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>224</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>207</v>
+      </c>
+      <c r="AF3" s="4">
         <v>86</v>
       </c>
-      <c r="K3" s="9">
-        <v>1777</v>
-      </c>
-      <c r="L3" s="9">
-        <v>1120</v>
-      </c>
-      <c r="M3" s="9">
-        <v>2782</v>
-      </c>
-      <c r="N3" s="9">
-        <v>52</v>
-      </c>
-      <c r="O3" s="9">
-        <v>1779</v>
-      </c>
-      <c r="P3" s="9">
-        <v>1414</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>183</v>
-      </c>
-      <c r="R3" s="9">
-        <v>496</v>
-      </c>
-      <c r="S3" s="9">
-        <v>173</v>
-      </c>
-      <c r="T3" s="9">
-        <v>204</v>
-      </c>
-      <c r="U3" s="9">
-        <v>470</v>
-      </c>
-      <c r="V3" s="9">
-        <v>93</v>
-      </c>
-      <c r="W3" s="9">
-        <v>82</v>
-      </c>
-      <c r="X3" s="9">
-        <v>178</v>
-      </c>
-      <c r="Y3" s="9">
-        <v>54</v>
-      </c>
-      <c r="Z3" s="9">
-        <v>65</v>
-      </c>
-      <c r="AA3" s="9">
-        <v>73</v>
-      </c>
-      <c r="AB3" s="9">
-        <v>268</v>
-      </c>
-      <c r="AC3" s="9">
-        <v>1415</v>
-      </c>
-      <c r="AD3" s="9">
-        <v>220</v>
-      </c>
-      <c r="AE3" s="9">
-        <v>208</v>
-      </c>
-      <c r="AF3" s="9">
-        <v>87</v>
-      </c>
-      <c r="AG3" s="9">
-        <v>479</v>
-      </c>
-      <c r="AH3" s="9">
-        <v>448</v>
-      </c>
-      <c r="AI3" s="9">
-        <v>362</v>
-      </c>
-      <c r="AJ3" s="9">
+      <c r="AG3" s="4">
+        <v>491</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>450</v>
+      </c>
+      <c r="AI3" s="4">
+        <v>348</v>
+      </c>
+      <c r="AJ3" s="4">
         <v>91</v>
       </c>
-      <c r="AK3" s="9">
-        <v>277</v>
-      </c>
-      <c r="AL3" s="9">
+      <c r="AK3" s="4">
+        <v>275</v>
+      </c>
+      <c r="AL3" s="4">
         <v>842</v>
       </c>
       <c r="AM3" s="11"/>
     </row>
     <row r="4" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="10">
         <v>3.22</v>
@@ -9477,236 +9478,236 @@
       </c>
       <c r="AM4" s="12"/>
     </row>
-    <row r="5" spans="1:39" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="6">
+        <v>201983</v>
+      </c>
+      <c r="C5" s="6">
+        <v>730979</v>
+      </c>
+      <c r="D5" s="6">
+        <v>42168</v>
+      </c>
+      <c r="E5" s="6">
+        <v>915007</v>
+      </c>
+      <c r="F5" s="6">
+        <v>604635</v>
+      </c>
+      <c r="G5" s="6">
+        <v>591480</v>
+      </c>
+      <c r="H5" s="6">
+        <v>771068</v>
+      </c>
+      <c r="I5" s="6">
+        <v>530607</v>
+      </c>
+      <c r="J5" s="6">
+        <v>319091</v>
+      </c>
+      <c r="K5" s="6">
+        <v>2818110</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1322423</v>
+      </c>
+      <c r="M5" s="6">
+        <v>2887215</v>
+      </c>
+      <c r="N5" s="6">
+        <v>193325</v>
+      </c>
+      <c r="O5" s="6">
+        <v>1730434</v>
+      </c>
+      <c r="P5" s="6">
+        <v>1565568</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>229226</v>
+      </c>
+      <c r="R5" s="6">
+        <v>712434</v>
+      </c>
+      <c r="S5" s="6">
+        <v>809937</v>
+      </c>
+      <c r="T5" s="6">
+        <v>565916</v>
+      </c>
+      <c r="U5" s="6">
+        <v>707470</v>
+      </c>
+      <c r="V5" s="6">
+        <v>242554</v>
+      </c>
+      <c r="W5" s="6">
+        <v>467466</v>
+      </c>
+      <c r="X5" s="6">
+        <v>585439</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>102774</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>152130</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>45440</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>1702263</v>
+      </c>
+      <c r="AC5" s="6">
+        <v>2268666</v>
+      </c>
+      <c r="AD5" s="6">
+        <v>504381</v>
+      </c>
+      <c r="AE5" s="6">
+        <v>641881</v>
+      </c>
+      <c r="AF5" s="6">
+        <v>225075</v>
+      </c>
+      <c r="AG5" s="6">
+        <v>688316</v>
+      </c>
+      <c r="AH5" s="6">
+        <v>634739</v>
+      </c>
+      <c r="AI5" s="6">
+        <v>1184665</v>
+      </c>
+      <c r="AJ5" s="6">
+        <v>267411</v>
+      </c>
+      <c r="AK5" s="6">
+        <v>601283</v>
+      </c>
+      <c r="AL5" s="6">
+        <v>213133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="10">
-        <v>198399</v>
-      </c>
-      <c r="C5" s="10">
-        <v>682563</v>
-      </c>
-      <c r="D5" s="10">
-        <v>50239</v>
-      </c>
-      <c r="E5" s="10">
-        <v>903549</v>
-      </c>
-      <c r="F5" s="10">
-        <v>621113</v>
-      </c>
-      <c r="G5" s="10">
-        <v>563112</v>
-      </c>
-      <c r="H5" s="10">
-        <v>683320</v>
-      </c>
-      <c r="I5" s="10">
-        <v>520874</v>
-      </c>
-      <c r="J5" s="10">
-        <v>304328</v>
-      </c>
-      <c r="K5" s="10">
-        <v>2772617</v>
-      </c>
-      <c r="L5" s="10">
-        <v>1235140</v>
-      </c>
-      <c r="M5" s="10">
-        <v>2845477</v>
-      </c>
-      <c r="N5" s="10">
-        <v>190501</v>
-      </c>
-      <c r="O5" s="10">
-        <v>1681498</v>
-      </c>
-      <c r="P5" s="10">
-        <v>1550608</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>229263</v>
-      </c>
-      <c r="R5" s="10">
-        <v>677777</v>
-      </c>
-      <c r="S5" s="10">
-        <v>717157</v>
-      </c>
-      <c r="T5" s="10">
-        <v>536948</v>
-      </c>
-      <c r="U5" s="10">
-        <v>682995</v>
-      </c>
-      <c r="V5" s="10">
-        <v>240571</v>
-      </c>
-      <c r="W5" s="10">
-        <v>435890</v>
-      </c>
-      <c r="X5" s="10">
-        <v>567805</v>
-      </c>
-      <c r="Y5" s="10">
-        <v>101906</v>
-      </c>
-      <c r="Z5" s="10">
-        <v>146380</v>
-      </c>
-      <c r="AA5" s="10">
-        <v>56298</v>
-      </c>
-      <c r="AB5" s="10">
-        <v>1671185</v>
-      </c>
-      <c r="AC5" s="10">
-        <v>2214690</v>
-      </c>
-      <c r="AD5" s="10">
-        <v>479220</v>
-      </c>
-      <c r="AE5" s="10">
-        <v>632309</v>
-      </c>
-      <c r="AF5" s="10">
-        <v>224039</v>
-      </c>
-      <c r="AG5" s="10">
-        <v>690554</v>
-      </c>
-      <c r="AH5" s="10">
-        <v>598230</v>
-      </c>
-      <c r="AI5" s="10">
-        <v>1164916</v>
-      </c>
-      <c r="AJ5" s="10">
-        <v>273748</v>
-      </c>
-      <c r="AK5" s="10">
-        <v>551569</v>
-      </c>
-      <c r="AL5" s="10">
-        <v>320276</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="10">
-        <v>46627</v>
-      </c>
-      <c r="C6" s="10">
-        <v>263155</v>
-      </c>
-      <c r="D6" s="10">
-        <v>18939</v>
-      </c>
-      <c r="E6" s="10">
-        <v>366680</v>
-      </c>
-      <c r="F6" s="10">
-        <v>562617</v>
-      </c>
-      <c r="G6" s="10">
-        <v>205396</v>
-      </c>
-      <c r="H6" s="10">
-        <v>239577</v>
-      </c>
-      <c r="I6" s="10">
-        <v>228444</v>
-      </c>
-      <c r="J6" s="10">
-        <v>162044</v>
-      </c>
-      <c r="K6" s="10">
-        <v>1881337</v>
-      </c>
-      <c r="L6" s="10">
-        <v>1508424</v>
-      </c>
-      <c r="M6" s="10">
-        <v>2639898</v>
-      </c>
-      <c r="N6" s="10">
-        <v>74861</v>
-      </c>
-      <c r="O6" s="10">
-        <v>1609082</v>
-      </c>
-      <c r="P6" s="10">
-        <v>1329980</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>170939</v>
-      </c>
-      <c r="R6" s="10">
-        <v>583639</v>
-      </c>
-      <c r="S6" s="10">
-        <v>237116</v>
-      </c>
-      <c r="T6" s="10">
-        <v>336801</v>
-      </c>
-      <c r="U6" s="10">
-        <v>549703</v>
-      </c>
-      <c r="V6" s="10">
-        <v>92886</v>
-      </c>
-      <c r="W6" s="10">
-        <v>99652</v>
-      </c>
-      <c r="X6" s="10">
-        <v>285969</v>
-      </c>
-      <c r="Y6" s="10">
-        <v>77899</v>
-      </c>
-      <c r="Z6" s="10">
-        <v>27956</v>
-      </c>
-      <c r="AA6" s="10">
-        <v>18273</v>
-      </c>
-      <c r="AB6" s="10">
-        <v>587342</v>
-      </c>
-      <c r="AC6" s="10">
-        <v>1781191</v>
-      </c>
-      <c r="AD6" s="10">
-        <v>399808</v>
-      </c>
-      <c r="AE6" s="10">
-        <v>298402</v>
-      </c>
-      <c r="AF6" s="10">
-        <v>66194</v>
-      </c>
-      <c r="AG6" s="10">
-        <v>493168</v>
-      </c>
-      <c r="AH6" s="10">
-        <v>365642</v>
-      </c>
-      <c r="AI6" s="10">
-        <v>450868</v>
-      </c>
-      <c r="AJ6" s="10">
-        <v>57152</v>
-      </c>
-      <c r="AK6" s="10">
-        <v>229245</v>
-      </c>
-      <c r="AL6" s="10">
-        <v>291335</v>
+      <c r="B6" s="6">
+        <v>48742</v>
+      </c>
+      <c r="C6" s="6">
+        <v>275568</v>
+      </c>
+      <c r="D6" s="6">
+        <v>16214</v>
+      </c>
+      <c r="E6" s="6">
+        <v>369833</v>
+      </c>
+      <c r="F6" s="6">
+        <v>548497</v>
+      </c>
+      <c r="G6" s="6">
+        <v>214760</v>
+      </c>
+      <c r="H6" s="6">
+        <v>270277</v>
+      </c>
+      <c r="I6" s="6">
+        <v>232312</v>
+      </c>
+      <c r="J6" s="6">
+        <v>168708</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1898328</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1605962</v>
+      </c>
+      <c r="M6" s="6">
+        <v>2678824</v>
+      </c>
+      <c r="N6" s="6">
+        <v>77796</v>
+      </c>
+      <c r="O6" s="6">
+        <v>1640648</v>
+      </c>
+      <c r="P6" s="6">
+        <v>1330020</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>166297</v>
+      </c>
+      <c r="R6" s="6">
+        <v>608512</v>
+      </c>
+      <c r="S6" s="6">
+        <v>256884</v>
+      </c>
+      <c r="T6" s="6">
+        <v>351654</v>
+      </c>
+      <c r="U6" s="6">
+        <v>547005</v>
+      </c>
+      <c r="V6" s="6">
+        <v>95222</v>
+      </c>
+      <c r="W6" s="6">
+        <v>101299</v>
+      </c>
+      <c r="X6" s="6">
+        <v>293545</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>88034</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>29607</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>16616</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>600970</v>
+      </c>
+      <c r="AC6" s="6">
+        <v>1815361</v>
+      </c>
+      <c r="AD6" s="6">
+        <v>417267</v>
+      </c>
+      <c r="AE6" s="6">
+        <v>304059</v>
+      </c>
+      <c r="AF6" s="6">
+        <v>67516</v>
+      </c>
+      <c r="AG6" s="6">
+        <v>490783</v>
+      </c>
+      <c r="AH6" s="6">
+        <v>384420</v>
+      </c>
+      <c r="AI6" s="6">
+        <v>454594</v>
+      </c>
+      <c r="AJ6" s="6">
+        <v>58165</v>
+      </c>
+      <c r="AK6" s="6">
+        <v>247005</v>
+      </c>
+      <c r="AL6" s="6">
+        <v>186111</v>
       </c>
     </row>
   </sheetData>
@@ -9718,8 +9719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:AL6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9771,313 +9772,313 @@
         <v>14</v>
       </c>
       <c r="O1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AD1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AE1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AF1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AG1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AH1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AI1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AK1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AL1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AL1" s="9" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="2" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9">
-        <v>18410</v>
-      </c>
-      <c r="C2" s="9">
-        <v>92051</v>
-      </c>
-      <c r="D2" s="9">
-        <v>4480</v>
-      </c>
-      <c r="E2" s="9">
-        <v>150346</v>
-      </c>
-      <c r="F2" s="9">
-        <v>94434</v>
-      </c>
-      <c r="G2" s="9">
-        <v>98393</v>
-      </c>
-      <c r="H2" s="9">
-        <v>69781</v>
-      </c>
-      <c r="I2" s="9">
-        <v>76524</v>
-      </c>
-      <c r="J2" s="9">
-        <v>34084</v>
-      </c>
-      <c r="K2" s="9">
-        <v>829697</v>
-      </c>
-      <c r="L2" s="9">
-        <v>287980</v>
-      </c>
-      <c r="M2" s="9">
-        <v>958920</v>
-      </c>
-      <c r="N2" s="9">
-        <v>14197</v>
-      </c>
-      <c r="O2" s="9">
-        <v>604266</v>
-      </c>
-      <c r="P2" s="9">
-        <v>556266</v>
-      </c>
-      <c r="Q2" s="9">
-        <v>38230</v>
-      </c>
-      <c r="R2" s="9">
-        <v>127715</v>
-      </c>
-      <c r="S2" s="9">
-        <v>74539</v>
-      </c>
-      <c r="T2" s="9">
-        <v>88518</v>
-      </c>
-      <c r="U2" s="9">
-        <v>165810</v>
-      </c>
-      <c r="V2" s="9">
-        <v>17271</v>
-      </c>
-      <c r="W2" s="9">
-        <v>53196</v>
-      </c>
-      <c r="X2" s="9">
-        <v>118407</v>
-      </c>
-      <c r="Y2" s="9">
-        <v>11556</v>
-      </c>
-      <c r="Z2" s="9">
-        <v>10498</v>
-      </c>
-      <c r="AA2" s="9">
-        <v>5817</v>
-      </c>
-      <c r="AB2" s="9">
-        <v>145335</v>
-      </c>
-      <c r="AC2" s="9">
-        <v>595612</v>
-      </c>
-      <c r="AD2" s="9">
-        <v>89408</v>
-      </c>
-      <c r="AE2" s="9">
-        <v>80124</v>
-      </c>
-      <c r="AF2" s="9">
-        <v>20104</v>
-      </c>
-      <c r="AG2" s="9">
-        <v>142617</v>
-      </c>
-      <c r="AH2" s="9">
-        <v>136127</v>
-      </c>
-      <c r="AI2" s="9">
-        <v>188780</v>
-      </c>
-      <c r="AJ2" s="9">
-        <v>26775</v>
-      </c>
-      <c r="AK2" s="9">
-        <v>60420</v>
-      </c>
-      <c r="AL2" s="9">
-        <v>123204</v>
+      <c r="B2" s="4">
+        <v>22488</v>
+      </c>
+      <c r="C2" s="4">
+        <v>111291</v>
+      </c>
+      <c r="D2" s="4">
+        <v>8873</v>
+      </c>
+      <c r="E2" s="4">
+        <v>185762</v>
+      </c>
+      <c r="F2" s="4">
+        <v>190529</v>
+      </c>
+      <c r="G2" s="4">
+        <v>142114</v>
+      </c>
+      <c r="H2" s="4">
+        <v>87713</v>
+      </c>
+      <c r="I2" s="4">
+        <v>89648</v>
+      </c>
+      <c r="J2" s="4">
+        <v>40989</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1043916</v>
+      </c>
+      <c r="L2" s="4">
+        <v>430367</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1244896</v>
+      </c>
+      <c r="N2" s="4">
+        <v>16477</v>
+      </c>
+      <c r="O2" s="4">
+        <v>755500</v>
+      </c>
+      <c r="P2" s="4">
+        <v>686571</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>64286</v>
+      </c>
+      <c r="R2" s="4">
+        <v>152884</v>
+      </c>
+      <c r="S2" s="4">
+        <v>93523</v>
+      </c>
+      <c r="T2" s="4">
+        <v>109654</v>
+      </c>
+      <c r="U2" s="4">
+        <v>183408</v>
+      </c>
+      <c r="V2" s="4">
+        <v>22678</v>
+      </c>
+      <c r="W2" s="4">
+        <v>58023</v>
+      </c>
+      <c r="X2" s="4">
+        <v>174740</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>16721</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>11938</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>6837</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>135433</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>905080</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>116661</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>114013</v>
+      </c>
+      <c r="AF2" s="4">
+        <v>25781</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>159610</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>160075</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>329727</v>
+      </c>
+      <c r="AJ2" s="4">
+        <v>31920</v>
+      </c>
+      <c r="AK2" s="4">
+        <v>77309</v>
+      </c>
+      <c r="AL2" s="4">
+        <v>91205</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="9">
-        <v>49</v>
-      </c>
-      <c r="C3" s="9">
-        <v>192</v>
-      </c>
-      <c r="D3" s="9">
-        <v>82</v>
-      </c>
-      <c r="E3" s="9">
-        <v>291</v>
-      </c>
-      <c r="F3" s="9">
-        <v>407</v>
-      </c>
-      <c r="G3" s="9">
-        <v>232</v>
-      </c>
-      <c r="H3" s="9">
-        <v>248</v>
-      </c>
-      <c r="I3" s="9">
-        <v>234</v>
-      </c>
-      <c r="J3" s="9">
+        <v>38</v>
+      </c>
+      <c r="B3" s="4">
+        <v>70</v>
+      </c>
+      <c r="C3" s="4">
+        <v>190</v>
+      </c>
+      <c r="D3" s="4">
+        <v>83</v>
+      </c>
+      <c r="E3" s="4">
+        <v>294</v>
+      </c>
+      <c r="F3" s="4">
+        <v>382</v>
+      </c>
+      <c r="G3" s="4">
+        <v>225</v>
+      </c>
+      <c r="H3" s="4">
+        <v>257</v>
+      </c>
+      <c r="I3" s="4">
+        <v>237</v>
+      </c>
+      <c r="J3" s="4">
+        <v>100</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1847</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1219</v>
+      </c>
+      <c r="M3" s="4">
+        <v>2727</v>
+      </c>
+      <c r="N3" s="4">
+        <v>55</v>
+      </c>
+      <c r="O3" s="4">
+        <v>1737</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1452</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>186</v>
+      </c>
+      <c r="R3" s="4">
+        <v>486</v>
+      </c>
+      <c r="S3" s="4">
+        <v>176</v>
+      </c>
+      <c r="T3" s="4">
+        <v>207</v>
+      </c>
+      <c r="U3" s="4">
+        <v>451</v>
+      </c>
+      <c r="V3" s="4">
+        <v>92</v>
+      </c>
+      <c r="W3" s="4">
+        <v>87</v>
+      </c>
+      <c r="X3" s="4">
+        <v>199</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>53</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>59</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>75</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>265</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>1357</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>224</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>207</v>
+      </c>
+      <c r="AF3" s="4">
         <v>86</v>
       </c>
-      <c r="K3" s="9">
-        <v>1777</v>
-      </c>
-      <c r="L3" s="9">
-        <v>1120</v>
-      </c>
-      <c r="M3" s="9">
-        <v>2782</v>
-      </c>
-      <c r="N3" s="9">
-        <v>52</v>
-      </c>
-      <c r="O3" s="9">
-        <v>1779</v>
-      </c>
-      <c r="P3" s="9">
-        <v>1414</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>183</v>
-      </c>
-      <c r="R3" s="9">
-        <v>496</v>
-      </c>
-      <c r="S3" s="9">
-        <v>173</v>
-      </c>
-      <c r="T3" s="9">
-        <v>204</v>
-      </c>
-      <c r="U3" s="9">
-        <v>470</v>
-      </c>
-      <c r="V3" s="9">
-        <v>93</v>
-      </c>
-      <c r="W3" s="9">
-        <v>82</v>
-      </c>
-      <c r="X3" s="9">
-        <v>178</v>
-      </c>
-      <c r="Y3" s="9">
-        <v>54</v>
-      </c>
-      <c r="Z3" s="9">
-        <v>65</v>
-      </c>
-      <c r="AA3" s="9">
-        <v>73</v>
-      </c>
-      <c r="AB3" s="9">
-        <v>268</v>
-      </c>
-      <c r="AC3" s="9">
-        <v>1415</v>
-      </c>
-      <c r="AD3" s="9">
-        <v>220</v>
-      </c>
-      <c r="AE3" s="9">
-        <v>208</v>
-      </c>
-      <c r="AF3" s="9">
-        <v>87</v>
-      </c>
-      <c r="AG3" s="9">
-        <v>479</v>
-      </c>
-      <c r="AH3" s="9">
-        <v>448</v>
-      </c>
-      <c r="AI3" s="9">
-        <v>362</v>
-      </c>
-      <c r="AJ3" s="9">
+      <c r="AG3" s="4">
+        <v>491</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>450</v>
+      </c>
+      <c r="AI3" s="4">
+        <v>348</v>
+      </c>
+      <c r="AJ3" s="4">
         <v>91</v>
       </c>
-      <c r="AK3" s="9">
-        <v>277</v>
-      </c>
-      <c r="AL3" s="9">
+      <c r="AK3" s="4">
+        <v>275</v>
+      </c>
+      <c r="AL3" s="4">
         <v>842</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="10">
         <f>B9*B11</f>
@@ -10228,241 +10229,241 @@
         <v>-4080</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="6">
+        <v>201983</v>
+      </c>
+      <c r="C5" s="6">
+        <v>730979</v>
+      </c>
+      <c r="D5" s="6">
+        <v>42168</v>
+      </c>
+      <c r="E5" s="6">
+        <v>915007</v>
+      </c>
+      <c r="F5" s="6">
+        <v>604635</v>
+      </c>
+      <c r="G5" s="6">
+        <v>591480</v>
+      </c>
+      <c r="H5" s="6">
+        <v>771068</v>
+      </c>
+      <c r="I5" s="6">
+        <v>530607</v>
+      </c>
+      <c r="J5" s="6">
+        <v>319091</v>
+      </c>
+      <c r="K5" s="6">
+        <v>2818110</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1322423</v>
+      </c>
+      <c r="M5" s="6">
+        <v>2887215</v>
+      </c>
+      <c r="N5" s="6">
+        <v>193325</v>
+      </c>
+      <c r="O5" s="6">
+        <v>1730434</v>
+      </c>
+      <c r="P5" s="6">
+        <v>1565568</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>229226</v>
+      </c>
+      <c r="R5" s="6">
+        <v>712434</v>
+      </c>
+      <c r="S5" s="6">
+        <v>809937</v>
+      </c>
+      <c r="T5" s="6">
+        <v>565916</v>
+      </c>
+      <c r="U5" s="6">
+        <v>707470</v>
+      </c>
+      <c r="V5" s="6">
+        <v>242554</v>
+      </c>
+      <c r="W5" s="6">
+        <v>467466</v>
+      </c>
+      <c r="X5" s="6">
+        <v>585439</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>102774</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>152130</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>45440</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>1702263</v>
+      </c>
+      <c r="AC5" s="6">
+        <v>2268666</v>
+      </c>
+      <c r="AD5" s="6">
+        <v>504381</v>
+      </c>
+      <c r="AE5" s="6">
+        <v>641881</v>
+      </c>
+      <c r="AF5" s="6">
+        <v>225075</v>
+      </c>
+      <c r="AG5" s="6">
+        <v>688316</v>
+      </c>
+      <c r="AH5" s="6">
+        <v>634739</v>
+      </c>
+      <c r="AI5" s="6">
+        <v>1184665</v>
+      </c>
+      <c r="AJ5" s="6">
+        <v>267411</v>
+      </c>
+      <c r="AK5" s="6">
+        <v>601283</v>
+      </c>
+      <c r="AL5" s="6">
+        <v>213133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="10">
-        <v>198399</v>
-      </c>
-      <c r="C5" s="10">
-        <v>682563</v>
-      </c>
-      <c r="D5" s="10">
-        <v>50239</v>
-      </c>
-      <c r="E5" s="10">
-        <v>903549</v>
-      </c>
-      <c r="F5" s="10">
-        <v>621113</v>
-      </c>
-      <c r="G5" s="10">
-        <v>563112</v>
-      </c>
-      <c r="H5" s="10">
-        <v>683320</v>
-      </c>
-      <c r="I5" s="10">
-        <v>520874</v>
-      </c>
-      <c r="J5" s="10">
-        <v>304328</v>
-      </c>
-      <c r="K5" s="10">
-        <v>2772617</v>
-      </c>
-      <c r="L5" s="10">
-        <v>1235140</v>
-      </c>
-      <c r="M5" s="10">
-        <v>2845477</v>
-      </c>
-      <c r="N5" s="10">
-        <v>190501</v>
-      </c>
-      <c r="O5" s="10">
-        <v>1681498</v>
-      </c>
-      <c r="P5" s="10">
-        <v>1550608</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>229263</v>
-      </c>
-      <c r="R5" s="10">
-        <v>677777</v>
-      </c>
-      <c r="S5" s="10">
-        <v>717157</v>
-      </c>
-      <c r="T5" s="10">
-        <v>536948</v>
-      </c>
-      <c r="U5" s="10">
-        <v>682995</v>
-      </c>
-      <c r="V5" s="10">
-        <v>240571</v>
-      </c>
-      <c r="W5" s="10">
-        <v>435890</v>
-      </c>
-      <c r="X5" s="10">
-        <v>567805</v>
-      </c>
-      <c r="Y5" s="10">
-        <v>101906</v>
-      </c>
-      <c r="Z5" s="10">
-        <v>146380</v>
-      </c>
-      <c r="AA5" s="10">
-        <v>56298</v>
-      </c>
-      <c r="AB5" s="10">
-        <v>1671185</v>
-      </c>
-      <c r="AC5" s="10">
-        <v>2214690</v>
-      </c>
-      <c r="AD5" s="10">
-        <v>479220</v>
-      </c>
-      <c r="AE5" s="10">
-        <v>632309</v>
-      </c>
-      <c r="AF5" s="10">
-        <v>224039</v>
-      </c>
-      <c r="AG5" s="10">
-        <v>690554</v>
-      </c>
-      <c r="AH5" s="10">
-        <v>598230</v>
-      </c>
-      <c r="AI5" s="10">
-        <v>1164916</v>
-      </c>
-      <c r="AJ5" s="10">
-        <v>273748</v>
-      </c>
-      <c r="AK5" s="10">
-        <v>551569</v>
-      </c>
-      <c r="AL5" s="10">
-        <v>320276</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="10">
-        <v>46627</v>
-      </c>
-      <c r="C6" s="10">
-        <v>263155</v>
-      </c>
-      <c r="D6" s="10">
-        <v>18939</v>
-      </c>
-      <c r="E6" s="10">
-        <v>366680</v>
-      </c>
-      <c r="F6" s="10">
-        <v>562617</v>
-      </c>
-      <c r="G6" s="10">
-        <v>205396</v>
-      </c>
-      <c r="H6" s="10">
-        <v>239577</v>
-      </c>
-      <c r="I6" s="10">
-        <v>228444</v>
-      </c>
-      <c r="J6" s="10">
-        <v>162044</v>
-      </c>
-      <c r="K6" s="10">
-        <v>1881337</v>
-      </c>
-      <c r="L6" s="10">
-        <v>1508424</v>
-      </c>
-      <c r="M6" s="10">
-        <v>2639898</v>
-      </c>
-      <c r="N6" s="10">
-        <v>74861</v>
-      </c>
-      <c r="O6" s="10">
-        <v>1609082</v>
-      </c>
-      <c r="P6" s="10">
-        <v>1329980</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>170939</v>
-      </c>
-      <c r="R6" s="10">
-        <v>583639</v>
-      </c>
-      <c r="S6" s="10">
-        <v>237116</v>
-      </c>
-      <c r="T6" s="10">
-        <v>336801</v>
-      </c>
-      <c r="U6" s="10">
-        <v>549703</v>
-      </c>
-      <c r="V6" s="10">
-        <v>92886</v>
-      </c>
-      <c r="W6" s="10">
-        <v>99652</v>
-      </c>
-      <c r="X6" s="10">
-        <v>285969</v>
-      </c>
-      <c r="Y6" s="10">
-        <v>77899</v>
-      </c>
-      <c r="Z6" s="10">
-        <v>27956</v>
-      </c>
-      <c r="AA6" s="10">
-        <v>18273</v>
-      </c>
-      <c r="AB6" s="10">
-        <v>587342</v>
-      </c>
-      <c r="AC6" s="10">
-        <v>1781191</v>
-      </c>
-      <c r="AD6" s="10">
-        <v>399808</v>
-      </c>
-      <c r="AE6" s="10">
-        <v>298402</v>
-      </c>
-      <c r="AF6" s="10">
-        <v>66194</v>
-      </c>
-      <c r="AG6" s="10">
-        <v>493168</v>
-      </c>
-      <c r="AH6" s="10">
-        <v>365642</v>
-      </c>
-      <c r="AI6" s="10">
-        <v>450868</v>
-      </c>
-      <c r="AJ6" s="10">
-        <v>57152</v>
-      </c>
-      <c r="AK6" s="10">
-        <v>229245</v>
-      </c>
-      <c r="AL6" s="10">
-        <v>291335</v>
+      <c r="B6" s="6">
+        <v>48742</v>
+      </c>
+      <c r="C6" s="6">
+        <v>275568</v>
+      </c>
+      <c r="D6" s="6">
+        <v>16214</v>
+      </c>
+      <c r="E6" s="6">
+        <v>369833</v>
+      </c>
+      <c r="F6" s="6">
+        <v>548497</v>
+      </c>
+      <c r="G6" s="6">
+        <v>214760</v>
+      </c>
+      <c r="H6" s="6">
+        <v>270277</v>
+      </c>
+      <c r="I6" s="6">
+        <v>232312</v>
+      </c>
+      <c r="J6" s="6">
+        <v>168708</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1898328</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1605962</v>
+      </c>
+      <c r="M6" s="6">
+        <v>2678824</v>
+      </c>
+      <c r="N6" s="6">
+        <v>77796</v>
+      </c>
+      <c r="O6" s="6">
+        <v>1640648</v>
+      </c>
+      <c r="P6" s="6">
+        <v>1330020</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>166297</v>
+      </c>
+      <c r="R6" s="6">
+        <v>608512</v>
+      </c>
+      <c r="S6" s="6">
+        <v>256884</v>
+      </c>
+      <c r="T6" s="6">
+        <v>351654</v>
+      </c>
+      <c r="U6" s="6">
+        <v>547005</v>
+      </c>
+      <c r="V6" s="6">
+        <v>95222</v>
+      </c>
+      <c r="W6" s="6">
+        <v>101299</v>
+      </c>
+      <c r="X6" s="6">
+        <v>293545</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>88034</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>29607</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>16616</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>600970</v>
+      </c>
+      <c r="AC6" s="6">
+        <v>1815361</v>
+      </c>
+      <c r="AD6" s="6">
+        <v>417267</v>
+      </c>
+      <c r="AE6" s="6">
+        <v>304059</v>
+      </c>
+      <c r="AF6" s="6">
+        <v>67516</v>
+      </c>
+      <c r="AG6" s="6">
+        <v>490783</v>
+      </c>
+      <c r="AH6" s="6">
+        <v>384420</v>
+      </c>
+      <c r="AI6" s="6">
+        <v>454594</v>
+      </c>
+      <c r="AJ6" s="6">
+        <v>58165</v>
+      </c>
+      <c r="AK6" s="6">
+        <v>247005</v>
+      </c>
+      <c r="AL6" s="6">
+        <v>186111</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="13">
         <v>-4000</v>
@@ -10578,7 +10579,7 @@
     </row>
     <row r="11" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="10">
         <v>3.22</v>
